--- a/Template/CreateItemSec.xlsx
+++ b/Template/CreateItemSec.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CloudUtilities\Item-Class-Security\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E268406-9130-4456-883D-104F43C30873}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41D2AFBF-F93F-4A56-A45F-427CDBAF385A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="13">
   <si>
     <t>Class</t>
   </si>
@@ -72,6 +72,9 @@
   </si>
   <si>
     <t>Edit | Edit_Test | ORA_HC_EFF_EDIT_PRIV | ORA_HC_EFF_VIEW_PRIV</t>
+  </si>
+  <si>
+    <t>ORA_HC_EFF_EDIT_PRIV | ORA_HC_EFF_VIEW_PRIV</t>
   </si>
 </sst>
 </file>
@@ -478,7 +481,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="D5" sqref="D4:D5"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -545,6 +548,9 @@
         <v>5</v>
       </c>
       <c r="C4"/>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
       <c r="E4" t="s">
         <v>6</v>
       </c>
@@ -557,6 +563,9 @@
         <v>9</v>
       </c>
       <c r="C5"/>
+      <c r="D5" t="s">
+        <v>12</v>
+      </c>
       <c r="E5" t="s">
         <v>6</v>
       </c>
